--- a/Macro/Bankruptcy.xlsx
+++ b/Macro/Bankruptcy.xlsx
@@ -2633,7 +2633,7 @@
   <dimension ref="B1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
